--- a/medicine/Enfance/Christel_Desmoinaux/Christel_Desmoinaux.xlsx
+++ b/medicine/Enfance/Christel_Desmoinaux/Christel_Desmoinaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christel Desmoinaux est une auteure et illustratrice de livres pour enfants, née le 28 mars 1967[1] à Nogent-sur-Marne. Elle est également artiste peintre depuis 2018. Elle obtient en 2019, une résidence d'artiste de six mois à l'atelier de Dübendorf, où elle réside actuellement.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christel Desmoinaux est une auteure et illustratrice de livres pour enfants, née le 28 mars 1967 à Nogent-sur-Marne. Elle est également artiste peintre depuis 2018. Elle obtient en 2019, une résidence d'artiste de six mois à l'atelier de Dübendorf, où elle réside actuellement.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a suivi des études de graphisme puis travaille dans la publicité et participe à la création d'un dessin animé pour la télévision[2]. À partir de 1988, elle commence à illustrer, à la fois pour la presse jeunesse, et les livres pour enfants. Elle vit près de Zurich depuis 2010[3],[4],[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a suivi des études de graphisme puis travaille dans la publicité et participe à la création d'un dessin animé pour la télévision. À partir de 1988, elle commence à illustrer, à la fois pour la presse jeunesse, et les livres pour enfants. Elle vit près de Zurich depuis 2010.
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a illustré et écrit de nombreux livres jeunesse pour les éditeurs: L'École des loisirs, Hachette, Nathan, Fleurus, Auzou, etc. Elle est également l'illustratrice de la bande dessinée Loulou dans le magazine Mille et une histoires. Elle collabore également avec l'entreprise Wakatoon qui édite une application de coloriages animés[7],[8].
-Auteure du texte
- Marius le minus (2013), Hachette
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a illustré et écrit de nombreux livres jeunesse pour les éditeurs: L'École des loisirs, Hachette, Nathan, Fleurus, Auzou, etc. Elle est également l'illustratrice de la bande dessinée Loulou dans le magazine Mille et une histoires. Elle collabore également avec l'entreprise Wakatoon qui édite une application de coloriages animés,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christel_Desmoinaux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christel_Desmoinaux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteure du texte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Marius le minus (2013), Hachette
 L'œuf de madame Poule (2013), Hachette
 Rosa rêve d'être une star (2013), Hachette
 Lucie la râleuse (2013), Hachette
@@ -591,9 +642,43 @@
 Dis-moi, qu'est-ce que c'est Halloween ? (1998), Hachette
 Toute une journée (1992), Nathan
 Julia n'en rate pas une ! (1991), Fleurus
-Comme il rougit, M. Souris ! (1989), Bordas
-Illustratrice
-La chèvre de monsieur Seguin, conte d'Alphonse Daudet ; adapté par Sophie Koechlin ; Deux coqs d'or, 2016
+Comme il rougit, M. Souris ! (1989), Bordas</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christel_Desmoinaux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christel_Desmoinaux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La chèvre de monsieur Seguin, conte d'Alphonse Daudet ; adapté par Sophie Koechlin ; Deux coqs d'or, 2016
 Ah, si j'avais des ailes ! (2015)
 La nuit, conception : Christophe Hublet ; texte : Stéphanie Redoulès, Émilie Beaumont ; Fleurus,2015
 Les chiens, conception : Christophe Hublet ; texte, Hélène Grimault, Émilie Beaumont ; Fleurus 2015
